--- a/derivatives/covariates/Composite_Reward.xlsx
+++ b/derivatives/covariates/Composite_Reward.xlsx
@@ -13,7 +13,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Composite_Reward</t>
+  </si>
+  <si>
+    <t>Composite_Reward_Squared</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Composite_Reward</t>
+  </si>
+  <si>
+    <t>Composite_Reward_Squared</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Composite_Reward</t>
+  </si>
+  <si>
+    <t>Composite_Reward_Squared</t>
+  </si>
   <si>
     <t>Subject</t>
   </si>
@@ -104,13 +131,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">

--- a/derivatives/covariates/Composite_Reward.xlsx
+++ b/derivatives/covariates/Composite_Reward.xlsx
@@ -13,7 +13,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Composite_Reward</t>
+  </si>
+  <si>
+    <t>Composite_Reward_Squared</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Composite_Reward</t>
+  </si>
+  <si>
+    <t>Composite_Reward_Squared</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Composite_Reward</t>
+  </si>
+  <si>
+    <t>Composite_Reward_Squared</t>
+  </si>
   <si>
     <t>Subject</t>
   </si>
@@ -131,13 +158,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
